--- a/AfDD_2020_Annex_Table_Tab05.xlsx
+++ b/AfDD_2020_Annex_Table_Tab05.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Markley_S\BACKUP\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="174">
   <si>
     <t>Table 5: Demographic estimates</t>
   </si>
@@ -529,7 +529,97 @@
     <t>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2019 Revision and World Urbanization Prospects: the 2018 revision.</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up the historic time series for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD2020</t>
+    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD2020</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To download all data for the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Africa's Development Dynamics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To download all data for the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Africa's Development Dynamics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To download all data for the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Africa's Development Dynamics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -540,7 +630,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +753,15 @@
       <i/>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -828,9 +927,11 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -846,6 +947,7 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -870,7 +972,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -907,7 +1011,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -923,7 +1029,9 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -939,7 +1047,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -994,9 +1104,14 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1004,6 +1119,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1286,29 +1402,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet14">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="63" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" style="63" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" style="63" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="62" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="64" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" style="65" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="64" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" style="65" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.453125" style="65" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="64" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="66" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="67" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1324,3697 +1441,3730 @@
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="18">
         <v>31825.298999999999</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="18">
         <v>21009.5422067867</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="19">
         <v>10745.249939889</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="18">
         <v>4881.3476465637896</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="18">
         <v>8</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="18">
         <v>8050.3480517339804</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="19">
         <v>1</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="20">
         <v>4.30923742779403</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="20">
         <v>90.806777172444896</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="21">
         <v>95.116014600238898</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <v>2303.703</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="18">
         <v>1663.8287830245899</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="19">
         <v>707.91090276120497</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="19">
+      <c r="F4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="20">
         <v>7.06692600445556</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="20">
         <v>54.445258541498099</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="21">
         <v>61.512184545953602</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="23">
         <v>1148.133</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="23">
         <v>339.37476079747398</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="24">
         <v>1074.9688467287599</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="24">
+      <c r="F5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="25">
         <v>6.8711054414339898</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="25">
         <v>64.896091298569402</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="26">
         <v>71.767196740003399</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="23">
         <v>2125.2669999999998</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="23">
         <v>655.28192169802401</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="24">
         <v>1636.2293158139701</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="24">
+      <c r="F6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="25">
         <v>7.8569559201259098</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="25">
         <v>51.869643030331702</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="26">
         <v>59.7265989504576</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="23">
         <v>18628.749</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="23">
         <v>3389.7827457368298</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="24">
         <v>16318.9558491265</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="23">
         <v>905.87482859418606</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="23">
         <v>1</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="23">
         <v>1074.68178918586</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="24">
         <v>1</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="25">
         <v>4.8955612934512303</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="25">
         <v>80.512716424639706</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="26">
         <v>85.408277718090901</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="23">
         <v>30366.043000000001</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="23">
         <v>11468.218295767399</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="24">
         <v>19923.641235989398</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="23">
         <v>2512.2545176096901</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="23">
         <v>5</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="23">
         <v>2735.2212264815198</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="24">
         <v>2</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="25">
         <v>5.4358733048479797</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="25">
         <v>83.992916534897702</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="26">
         <v>89.428789839745704</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="23">
         <v>2494.5239999999999</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="23">
         <v>1345.4502772676401</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="24">
         <v>1292.3431480572799</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="23">
         <v>417.67881855342301</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="23">
         <v>1</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="24">
+      <c r="H9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="25">
         <v>6.0763572264038901</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="25">
         <v>61.909644206882</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="26">
         <v>67.986001433285907</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="23">
         <v>58558.267</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="23">
         <v>38780.119162491901</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="24">
         <v>19225.3308075124</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="23">
         <v>5585.2104974087997</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="23">
         <v>9</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="23">
         <v>20766.9269658257</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="24">
         <v>6</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="25">
         <v>8.2411859361651096</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="25">
         <v>43.9949165022703</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="26">
         <v>52.236102438435402</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="18">
         <v>17861.034</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="18">
         <v>7991.1121224184499</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="19">
         <v>10136.9437900823</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="18">
         <v>1196.1244062368201</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="18">
         <v>2</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="18">
         <v>2645.32312239673</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="19">
         <v>1</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="20">
         <v>3.9621043522985202</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="20">
         <v>83.238016980867798</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="21">
         <v>87.200121333166294</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="23">
         <v>14645.473</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="23">
         <v>5577.0347143402496</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="24">
         <v>11705.283158369801</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="23">
         <v>1022.40304584398</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="23">
         <v>2</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="23">
         <v>1523.83234602367</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="24">
         <v>1</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="25">
         <v>5.4200599075383602</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="25">
         <v>76.464882405071094</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="26">
         <v>81.884942312609397</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="31">
         <v>179956.492</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="31">
         <v>92219.744990329302</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="32">
         <v>92766.856994330607</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="31">
         <v>16520.893760810701</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="31">
         <v>28</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="31">
         <v>36796.333501647401</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="32">
         <v>12</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="33">
         <v>6.0135366814514599</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="33">
         <v>69.213086309747297</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="34">
         <v>75.226622991198695</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="23">
         <v>11530.576999999999</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="23">
         <v>1546.2044968940399</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="24">
         <v>10020.5547408205</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="23">
         <v>954.12192920846906</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="23">
         <v>1</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="24">
+      <c r="H14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="25">
         <v>4.4362139300139098</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="25">
         <v>86.508974109860603</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="26">
         <v>90.945188039874495</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="23">
         <v>25876.386999999999</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="23">
         <v>14409.1290147333</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="24">
         <v>10884.5808937369</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="23">
         <v>2175.797048382</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="23">
         <v>5</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="23">
         <v>7307.8355944043396</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="24">
         <v>2</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="25">
         <v>4.9449189595057303</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="25">
         <v>76.930437513757397</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="26">
         <v>81.875356473263096</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="23">
         <v>4745.1790000000001</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="23">
         <v>2024.93677448792</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="24">
         <v>2818.0096613262299</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="23">
         <v>870.177600743119</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="23">
         <v>1</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="24">
+      <c r="H16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="25">
         <v>5.2612209251587796</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="25">
         <v>82.313265851539398</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="26">
         <v>87.574486776698194</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="18">
         <v>15946.882</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="18">
         <v>3684.3500870522298</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="19">
         <v>12117.0770320254</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="F17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="18">
         <v>1371.91104473002</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="19">
         <v>1</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="20">
         <v>4.9019282011592002</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="20">
         <v>92.152976537125696</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="21">
         <v>97.054904738284904</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="18">
         <v>5380.5039999999999</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="18">
         <v>3732.9728374280999</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="19">
         <v>1807.3927139909699</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="17">
+      <c r="F18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="18">
         <v>3464.0995489726101</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="19">
         <v>2</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="20">
         <v>4.8786225852230203</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="20">
         <v>74.244764079021394</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="21">
         <v>79.123386664244407</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="18">
         <v>86790.567999999999</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="18">
         <v>39038.639904267198</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="19">
         <v>47607.104682744903</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="18">
         <v>5430.0962250436496</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="18">
         <v>10</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="18">
         <v>22169.430254569601</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="19">
         <v>6</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="20">
         <v>5.90982513999014</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="20">
         <v>89.878355665394395</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="21">
         <v>95.788180805384499</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="18">
         <v>1355.982</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="18">
         <v>984.93618013981802</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="19">
         <v>371.465359004199</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="18">
         <v>392.33441528253798</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="18">
         <v>1</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="19">
+      <c r="H20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="20">
         <v>3.9776092104643999</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="20">
         <v>60.885193397662697</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="21">
         <v>64.862802608127097</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="18">
         <v>2172.578</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="18">
         <v>1888.16664890773</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="19">
         <v>216.29406857246499</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="18">
         <v>816.04112376275702</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="18">
         <v>1</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="19">
+      <c r="H21" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="20">
         <v>5.9763556175944101</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="20">
         <v>62.4535773817734</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="21">
         <v>68.429932999367793</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="23">
         <v>215.048</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="23">
         <v>156.78954578808899</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="24">
         <v>56.3848647848775</v>
       </c>
-      <c r="F22" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="24">
+      <c r="F22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="25">
         <v>5.4293928532396301</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="25">
         <v>76.599428974818096</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="26">
         <v>82.028821828057701</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="31">
         <v>154013.70499999999</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="31">
         <v>67466.125489698505</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="32">
         <v>85898.864017006505</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="31">
         <v>10638.568342422501</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="31">
         <v>19</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="31">
         <v>34313.276442676601</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="32">
         <v>11</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="33">
         <v>5.07956526914991</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="33">
         <v>77.996330390105896</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="34">
         <v>83.075895659255806</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="23">
         <v>850.89099999999996</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="23">
         <v>248.25881149807799</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="24">
         <v>602.04397647476105</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="24">
+      <c r="F24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="25">
         <v>5.3086047598743997</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="25">
         <v>68.030260258086201</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="26">
         <v>73.3388650179606</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="23">
         <v>973.55700000000002</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="23">
         <v>767.60313986562301</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="24">
         <v>217.34031346085101</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="23">
         <v>566.93486334275701</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="23">
         <v>1</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="24">
+      <c r="H25" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="25">
         <v>6.9973345489412102</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="25">
         <v>44.227789776229599</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="26">
         <v>51.225124325170803</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="23">
         <v>3497.1170000000002</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="23">
         <v>2161.0006017783699</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="24">
         <v>3147.0164865065399</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="23">
         <v>928.67929867142402</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="23">
         <v>1</v>
       </c>
-      <c r="H26" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="24">
+      <c r="H26" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="25">
         <v>8.2690000947784608</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="25">
         <v>76.376311380538496</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="26">
         <v>84.645311475317001</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="23">
         <v>112078.727</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="23">
         <v>23355.434221495201</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="24">
         <v>86671.871945829305</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="23">
         <v>1606.6309948292001</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="23">
         <v>4</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="23">
         <v>4592.9997161779502</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="24">
         <v>1</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="25">
         <v>6.2742558788380096</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="25">
         <v>71.988740894907806</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="26">
         <v>78.262996773745797</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="23">
         <v>52573.966999999997</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="23">
         <v>14354.6830914204</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="24">
         <v>37811.242582122301</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="23">
         <v>1467.55203603323</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="23">
         <v>4</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="23">
         <v>5812.72236595304</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="24">
         <v>2</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="25">
         <v>4.1523236725477002</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="25">
         <v>67.0943450871697</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="26">
         <v>71.246668759717494</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="23">
         <v>26969.306</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="23">
         <v>10202.750250056801</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="24">
         <v>16748.966340593601</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="23">
         <v>749.16068642880805</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="23">
         <v>2</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="23">
         <v>3202.9836640591302</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="24">
         <v>1</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="25">
         <v>5.3852049576369501</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="25">
         <v>71.390146856315397</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="26">
         <v>76.775351813952398</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="23">
         <v>1269.67</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="23">
         <v>518.73805209732598</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="24">
         <v>752.42834194355896</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="24">
+      <c r="F30" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="25">
         <v>16.985887471421101</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="25">
         <v>24.486068033969399</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="26">
         <v>41.471955505390497</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="23">
         <v>12626.938</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="23">
         <v>2217.0339223637902</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="24">
         <v>10564.553802684801</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="22">
+      <c r="F31" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="23">
         <v>1093.39485359029</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="24">
         <v>1</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="25">
         <v>5.2950717074069198</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="25">
         <v>69.323230463251406</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="26">
         <v>74.618302170658296</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="23">
         <v>97.741</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="23">
         <v>54.615893824286701</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="24">
         <v>41.003048521704997</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="24">
+      <c r="F32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="25">
         <v>11.550075336755601</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32" s="25">
         <v>34.563306361367196</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="26">
         <v>46.113381698122801</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="23">
         <v>15442.906000000001</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="23">
         <v>7123.29366703715</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="24">
         <v>8512.0720192056906</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="23">
         <v>2504.0869018264498</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="23">
         <v>4</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="23">
         <v>2172.0719766816101</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="24">
         <v>1</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="25">
         <v>5.6754162515047497</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33" s="25">
         <v>91.320972366553605</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="26">
         <v>96.996388618058404</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="18">
         <v>11062.114</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="18">
         <v>2638.7477775365201</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="19">
         <v>10605.437622227901</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="18">
         <v>385.26093161108997</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="18">
         <v>1</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="19">
+      <c r="H34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="20">
         <v>6.1099240894851397</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="20">
         <v>75.471377279982207</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="21">
         <v>81.581301369467297</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="23">
         <v>42813.237000000001</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="23">
         <v>14870.4248588025</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="24">
         <v>27642.099746489101</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="23">
         <v>2893.3370633643999</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="23">
         <v>6</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="23">
         <v>5681.4837617824296</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="24">
         <v>1</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="25">
         <v>6.4509657912685698</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K35" s="25">
         <v>71.404648511737904</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="26">
         <v>77.855614303006504</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="23">
         <v>58005.461000000003</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="23">
         <v>20989.069837736501</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="24">
         <v>39867.575539724101</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="23">
         <v>2420.52176651629</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="23">
         <v>5</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="23">
         <v>7406.5111039000103</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="24">
         <v>2</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="25">
         <v>4.8925259628470803</v>
       </c>
-      <c r="K36" s="24">
+      <c r="K36" s="25">
         <v>81.694055832813305</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="26">
         <v>86.586581795660393</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="23">
         <v>44269.587</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="23">
         <v>11122.8210659791</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="24">
         <v>34546.622061860799</v>
       </c>
-      <c r="F37" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="22">
+      <c r="F37" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="23">
         <v>3139.5047348672501</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="24">
         <v>1</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="25">
         <v>3.8061898720566698</v>
       </c>
-      <c r="K37" s="24">
+      <c r="K37" s="25">
         <v>89.941196930386695</v>
       </c>
-      <c r="L37" s="25">
+      <c r="L37" s="26">
         <v>93.747386802443401</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="31">
         <v>382531.21899999998</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="31">
         <v>110624.47519149201</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="32">
         <v>277730.273827645</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="31">
         <v>13522.164542623599</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="31">
         <v>28</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="31">
         <v>33101.6721770117</v>
       </c>
-      <c r="I38" s="31">
+      <c r="I38" s="32">
         <v>10</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="33">
         <v>6.9394843139544697</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K38" s="33">
         <v>66.950889288093506</v>
       </c>
-      <c r="L38" s="33">
+      <c r="L38" s="34">
         <v>73.890373602048001</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="18">
         <v>43053.053999999996</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="18">
         <v>31173.451229703202</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="19">
         <v>11430.129304878499</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="18">
         <v>3233.8192931215999</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="18">
         <v>7</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="18">
         <v>2731.6708757259398</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="19">
         <v>1</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="20">
         <v>10.4269537586942</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="20">
         <v>48.194754153731203</v>
       </c>
-      <c r="L39" s="20">
+      <c r="L39" s="21">
         <v>58.6217079124254</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="23">
         <v>100388.076</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="23">
         <v>43228.039461093598</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="24">
         <v>57811.810408438098</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="23">
         <v>5141.1466709767601</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="23">
         <v>11</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="23">
         <v>25645.393410567998</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="24">
         <v>2</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="25">
         <v>8.6784393239240707</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="25">
         <v>55.490475171046903</v>
       </c>
-      <c r="L40" s="25">
+      <c r="L40" s="26">
         <v>64.168914494971006</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="18">
         <v>6777.4530000000004</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="18">
         <v>5286.1754649486102</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="19">
         <v>1287.6145121117399</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="18">
         <v>1645.09143636004</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="18">
         <v>2</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="18">
         <v>1158.7725680691101</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="19">
         <v>1</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="20">
         <v>6.6161853557578096</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41" s="20">
         <v>41.4689300605054</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="21">
         <v>48.0851154162632</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="18">
         <v>4525.6980000000003</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="18">
         <v>2535.7958166661501</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="19">
         <v>2118.44972005205</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="17">
+      <c r="F42" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="18">
         <v>1258.7074443629101</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="19">
         <v>1</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J42" s="20">
         <v>5.5550535954971201</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="20">
         <v>69.9352551988611</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L42" s="21">
         <v>75.490308794358199</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="23">
         <v>36471.766000000003</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="23">
         <v>23053.358441148699</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="24">
         <v>13543.155178154901</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="23">
         <v>4196.6229043946396</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="23">
         <v>7</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="23">
         <v>7945.7464470990599</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="24">
         <v>4</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="25">
         <v>11.2084751881134</v>
       </c>
-      <c r="K43" s="24">
+      <c r="K43" s="25">
         <v>41.050835679702502</v>
       </c>
-      <c r="L43" s="25">
+      <c r="L43" s="26">
         <v>52.259310867815898</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="23">
         <v>11694.721</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="23">
         <v>8155.3733820717498</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="24">
         <v>3618.1153713230601</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="23">
         <v>624.45510285280602</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="23">
         <v>1</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="23">
         <v>2327.5551376416302</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I44" s="24">
         <v>1</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="25">
         <v>12.8570196480152</v>
       </c>
-      <c r="K44" s="24">
+      <c r="K44" s="25">
         <v>36.0162721382355</v>
       </c>
-      <c r="L44" s="25">
+      <c r="L44" s="26">
         <v>48.873291786250697</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="31">
         <v>202910.76800000001</v>
       </c>
-      <c r="D45" s="30">
+      <c r="D45" s="31">
         <v>113432.193795632</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="32">
         <v>89809.274494958299</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="31">
         <v>14841.1354077058</v>
       </c>
-      <c r="G45" s="30">
+      <c r="G45" s="31">
         <v>28</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H45" s="31">
         <v>41067.845883466602</v>
       </c>
-      <c r="I45" s="31">
+      <c r="I45" s="32">
         <v>10</v>
       </c>
-      <c r="J45" s="32">
+      <c r="J45" s="33">
         <v>9.22368781166697</v>
       </c>
-      <c r="K45" s="32">
+      <c r="K45" s="33">
         <v>48.692753733680398</v>
       </c>
-      <c r="L45" s="33">
+      <c r="L45" s="34">
         <v>57.916441545347404</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="23">
         <v>11801.151</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="23">
         <v>5645.5464798922003</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="24">
         <v>6148.1042451184803</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="23">
         <v>2351.5181392290501</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="23">
         <v>4</v>
       </c>
-      <c r="H46" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="24">
+      <c r="H46" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="25">
         <v>5.9894109989669699</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="25">
         <v>77.276822009169805</v>
       </c>
-      <c r="L46" s="25">
+      <c r="L46" s="26">
         <v>83.266233008136794</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="23">
         <v>20321.383000000002</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="23">
         <v>6086.6521732240099</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="24">
         <v>14218.1442342582</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="23">
         <v>924.248369932179</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="23">
         <v>1</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="23">
         <v>2653.2383481489701</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="24">
         <v>1</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="25">
         <v>4.5501123866895501</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K47" s="25">
         <v>84.221153113922199</v>
       </c>
-      <c r="L47" s="25">
+      <c r="L47" s="26">
         <v>88.771265500611705</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="23">
         <v>549.93600000000004</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="23">
         <v>370.768550223766</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="24">
         <v>189.40953537290201</v>
       </c>
-      <c r="F48" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="24">
+      <c r="F48" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="25">
         <v>7.0800929878284196</v>
       </c>
-      <c r="K48" s="24">
+      <c r="K48" s="25">
         <v>42.599348988905</v>
       </c>
-      <c r="L48" s="25">
+      <c r="L48" s="26">
         <v>49.6794419767335</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="23">
         <v>25716.554</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="23">
         <v>13081.9958054854</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="24">
         <v>12442.038689409101</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="23">
         <v>565.90751099134297</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="23">
         <v>1</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="23">
         <v>5061.3427523253104</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="24">
         <v>1</v>
       </c>
-      <c r="J49" s="24">
+      <c r="J49" s="25">
         <v>5.1718837051172697</v>
       </c>
-      <c r="K49" s="24">
+      <c r="K49" s="25">
         <v>75.293988604843307</v>
       </c>
-      <c r="L49" s="25">
+      <c r="L49" s="26">
         <v>80.465872309960602</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="23">
         <v>2347.6959999999999</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="23">
         <v>1378.12402558698</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="24">
         <v>847.54943159084496</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="23">
         <v>444.42762294024902</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50" s="23">
         <v>1</v>
       </c>
-      <c r="H50" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="24">
+      <c r="H50" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="25">
         <v>4.7880900312214498</v>
       </c>
-      <c r="K50" s="24">
+      <c r="K50" s="25">
         <v>82.541116832670795</v>
       </c>
-      <c r="L50" s="25">
+      <c r="L50" s="26">
         <v>87.329206863892296</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="18">
         <v>30417.858</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="18">
         <v>17047.443005686699</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="19">
         <v>13018.1964163147</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="18">
         <v>1502.2542782650301</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="18">
         <v>2</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="18">
         <v>5654.3004583572001</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I51" s="19">
         <v>2</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J51" s="20">
         <v>5.2278032258264204</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K51" s="20">
         <v>62.722644461937698</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L51" s="21">
         <v>67.950447687764097</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="23">
         <v>12771.245999999999</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="23">
         <v>4894.5339229352603</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="24">
         <v>8505.7459053634902</v>
       </c>
-      <c r="F52" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="22">
+      <c r="F52" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="23">
         <v>1891.1533433265799</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="24">
         <v>1</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="25">
         <v>5.4796281467357799</v>
       </c>
-      <c r="K52" s="24">
+      <c r="K52" s="25">
         <v>81.069604334425804</v>
       </c>
-      <c r="L52" s="25">
+      <c r="L52" s="26">
         <v>86.549232481161496</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="23">
         <v>1920.9169999999999</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="23">
         <v>854.62844112187702</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="24">
         <v>1097.4804499608199</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="23">
         <v>577.52230300692804</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G53" s="23">
         <v>1</v>
       </c>
-      <c r="H53" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="24">
+      <c r="H53" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="25">
         <v>5.1608280657261103</v>
       </c>
-      <c r="K53" s="24">
+      <c r="K53" s="25">
         <v>76.396554612145195</v>
       </c>
-      <c r="L53" s="25">
+      <c r="L53" s="26">
         <v>81.557382677871303</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="23">
         <v>4937.3739999999998</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="23">
         <v>2569.4098411931</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="24">
         <v>2406.61020053324</v>
       </c>
-      <c r="F54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="22">
+      <c r="F54" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="23">
         <v>1464.17010562064</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="24">
         <v>1</v>
       </c>
-      <c r="J54" s="24">
+      <c r="J54" s="25">
         <v>5.8753915059133899</v>
       </c>
-      <c r="K54" s="24">
+      <c r="K54" s="25">
         <v>72.738690593651995</v>
       </c>
-      <c r="L54" s="25">
+      <c r="L54" s="26">
         <v>78.614082099565394</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="23">
         <v>19658.023000000001</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="23">
         <v>8484.2140868066199</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="24">
         <v>11192.5807257865</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="23">
         <v>368.376129551026</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="23">
         <v>1</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="23">
         <v>2532.5935745071001</v>
       </c>
-      <c r="I55" s="23">
+      <c r="I55" s="24">
         <v>1</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J55" s="25">
         <v>4.9451682634627803</v>
       </c>
-      <c r="K55" s="24">
+      <c r="K55" s="25">
         <v>93.808841325820396</v>
       </c>
-      <c r="L55" s="25">
+      <c r="L55" s="26">
         <v>98.7540095892832</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="23">
         <v>23310.719000000001</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="23">
         <v>3835.19091790927</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="24">
         <v>19338.8797591605</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="23">
         <v>463.07968915106898</v>
       </c>
-      <c r="G56" s="22">
+      <c r="G56" s="23">
         <v>1</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H56" s="23">
         <v>1253.01125801172</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I56" s="24">
         <v>1</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J56" s="25">
         <v>5.4410333475327199</v>
       </c>
-      <c r="K56" s="24">
+      <c r="K56" s="25">
         <v>104.48139217372101</v>
       </c>
-      <c r="L56" s="25">
+      <c r="L56" s="26">
         <v>109.922425521254</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="18">
         <v>200963.603</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="18">
         <v>102671.301894743</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="19">
         <v>98116.812551770199</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="18">
         <v>22045.676637398701</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="18">
         <v>40</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="18">
         <v>33506.066114899499</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I57" s="19">
         <v>10</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J57" s="20">
         <v>5.10309367920844</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K57" s="20">
         <v>81.307509529844907</v>
       </c>
-      <c r="L57" s="20">
+      <c r="L57" s="21">
         <v>86.410603209053306</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="23">
         <v>16296.361999999999</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="23">
         <v>7974.0428171127896</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="24">
         <v>8753.7816947451302</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="23">
         <v>702.33012796842195</v>
       </c>
-      <c r="G58" s="22">
+      <c r="G58" s="23">
         <v>2</v>
       </c>
-      <c r="H58" s="22">
+      <c r="H58" s="23">
         <v>3059.9656001999301</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I58" s="24">
         <v>1</v>
       </c>
-      <c r="J58" s="24">
+      <c r="J58" s="25">
         <v>5.72442478086582</v>
       </c>
-      <c r="K58" s="24">
+      <c r="K58" s="25">
         <v>79.0122167874882</v>
       </c>
-      <c r="L58" s="25">
+      <c r="L58" s="26">
         <v>84.736641568354003</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="23">
         <v>7813.2070000000003</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="23">
         <v>3347.8061511537899</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="24">
         <v>4529.0614125409302</v>
       </c>
-      <c r="F59" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="22">
+      <c r="F59" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="23">
         <v>1168.3277355013799</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="24">
         <v>1</v>
       </c>
-      <c r="J59" s="24">
+      <c r="J59" s="25">
         <v>5.2127149436483897</v>
       </c>
-      <c r="K59" s="24">
+      <c r="K59" s="25">
         <v>72.107339009570893</v>
       </c>
-      <c r="L59" s="25">
+      <c r="L59" s="26">
         <v>77.320053953219301</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="18">
         <v>8082.3590000000004</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="18">
         <v>3456.2018484371101</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="19">
         <v>4723.0169094084904</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="17">
+      <c r="F60" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="18">
         <v>1787.6166198076901</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="19">
         <v>1</v>
       </c>
-      <c r="J60" s="19">
+      <c r="J60" s="20">
         <v>5.1342956439518899</v>
       </c>
-      <c r="K60" s="19">
+      <c r="K60" s="20">
         <v>72.885367412574396</v>
       </c>
-      <c r="L60" s="20">
+      <c r="L60" s="21">
         <v>78.019663056526298</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="31">
         <v>386908.38799999998</v>
       </c>
-      <c r="D61" s="30">
+      <c r="D61" s="31">
         <v>181697.859961512</v>
       </c>
-      <c r="E61" s="31">
+      <c r="E61" s="32">
         <v>205527.41216133401</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="31">
         <v>29945.340808434001</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="31">
         <v>54</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H61" s="31">
         <v>60031.785910706101</v>
       </c>
-      <c r="I61" s="31">
+      <c r="I61" s="32">
         <v>21</v>
       </c>
-      <c r="J61" s="32">
+      <c r="J61" s="33">
         <v>5.39226478084636</v>
       </c>
-      <c r="K61" s="32">
+      <c r="K61" s="33">
         <v>77.230839319379399</v>
       </c>
-      <c r="L61" s="33">
+      <c r="L61" s="34">
         <v>82.623104100225802</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C62" s="37">
         <v>1306320.5719999999</v>
       </c>
-      <c r="D62" s="36">
+      <c r="D62" s="37">
         <v>565440.39942866296</v>
       </c>
-      <c r="E62" s="37">
+      <c r="E62" s="38">
         <v>751732.68149527395</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F62" s="37">
         <v>85468.102861996696</v>
       </c>
-      <c r="G62" s="36">
+      <c r="G62" s="37">
         <v>157</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62" s="37">
         <v>205310.91391550799</v>
       </c>
-      <c r="I62" s="37">
+      <c r="I62" s="38">
         <v>64</v>
       </c>
-      <c r="J62" s="38">
+      <c r="J62" s="39">
         <v>6.2820432076837696</v>
       </c>
-      <c r="K62" s="38">
+      <c r="K62" s="39">
         <v>70.037581459898405</v>
       </c>
-      <c r="L62" s="39">
+      <c r="L62" s="40">
         <v>76.319624667582104</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="37">
         <v>6362586.5130000096</v>
       </c>
-      <c r="D63" s="36">
+      <c r="D63" s="37">
         <v>3691733.1379625099</v>
       </c>
-      <c r="E63" s="37">
+      <c r="E63" s="38">
         <v>2652863.4894507602</v>
       </c>
-      <c r="F63" s="36">
+      <c r="F63" s="37">
         <v>599162.82486382697</v>
       </c>
-      <c r="G63" s="36">
+      <c r="G63" s="37">
         <v>1134</v>
       </c>
-      <c r="H63" s="36">
+      <c r="H63" s="37">
         <v>1599522.6187446001</v>
       </c>
-      <c r="I63" s="37">
+      <c r="I63" s="38">
         <v>492</v>
       </c>
-      <c r="J63" s="38">
+      <c r="J63" s="39">
         <v>15.56069764894</v>
       </c>
-      <c r="K63" s="38">
+      <c r="K63" s="39">
         <v>35.292242503432398</v>
       </c>
-      <c r="L63" s="39">
+      <c r="L63" s="40">
         <v>49.405433394331503</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C64" s="43">
         <v>643474.17500000005</v>
       </c>
-      <c r="D64" s="42">
+      <c r="D64" s="43">
         <v>527477.31189865095</v>
       </c>
-      <c r="E64" s="43">
+      <c r="E64" s="44">
         <v>124973.16288172</v>
       </c>
-      <c r="F64" s="42">
+      <c r="F64" s="43">
         <v>72977.596425653697</v>
       </c>
-      <c r="G64" s="42">
+      <c r="G64" s="43">
         <v>137</v>
       </c>
-      <c r="H64" s="42">
+      <c r="H64" s="43">
         <v>240942.865702051</v>
       </c>
-      <c r="I64" s="43">
+      <c r="I64" s="44">
         <v>71</v>
       </c>
-      <c r="J64" s="44">
+      <c r="J64" s="45">
         <v>13.2144321327273</v>
       </c>
-      <c r="K64" s="44">
+      <c r="K64" s="45">
         <v>38.048431982098897</v>
       </c>
-      <c r="L64" s="45">
+      <c r="L64" s="46">
         <v>51.262864114826201</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="47">
+      <c r="C65" s="48">
         <v>4193820.551</v>
       </c>
-      <c r="D65" s="47">
+      <c r="D65" s="48">
         <v>1974431.0907677601</v>
       </c>
-      <c r="E65" s="43">
+      <c r="E65" s="44">
         <v>2198472.98816483</v>
       </c>
-      <c r="F65" s="47">
+      <c r="F65" s="48">
         <v>318769.82809066703</v>
       </c>
-      <c r="G65" s="47">
+      <c r="G65" s="48">
         <v>590</v>
       </c>
-      <c r="H65" s="47">
+      <c r="H65" s="48">
         <v>848497.71024267399</v>
       </c>
-      <c r="I65" s="43">
+      <c r="I65" s="44">
         <v>259</v>
       </c>
-      <c r="J65" s="48">
+      <c r="J65" s="49">
         <v>8.7307262535790802</v>
       </c>
-      <c r="K65" s="48">
+      <c r="K65" s="49">
         <v>45.1248741427423</v>
       </c>
-      <c r="L65" s="45">
+      <c r="L65" s="46">
         <v>53.8556003963214</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="43">
         <v>7668907.085</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="43">
         <v>4257173.5373911699</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="44">
         <v>3404596.1709460299</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="43">
         <v>684630.92772582301</v>
       </c>
-      <c r="G66" s="42">
+      <c r="G66" s="43">
         <v>1291</v>
       </c>
-      <c r="H66" s="42">
+      <c r="H66" s="43">
         <v>1804833.5326601099</v>
       </c>
-      <c r="I66" s="43">
+      <c r="I66" s="44">
         <v>556</v>
       </c>
-      <c r="J66" s="44">
+      <c r="J66" s="45">
         <v>12.630596246438101</v>
       </c>
-      <c r="K66" s="44">
+      <c r="K66" s="45">
         <v>45.5449654741928</v>
       </c>
-      <c r="L66" s="45">
+      <c r="L66" s="46">
         <v>57.347325901192299</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="50">
+      <c r="C67" s="51">
         <v>582928.42799999996</v>
       </c>
-      <c r="D67" s="50">
+      <c r="D67" s="51">
         <v>201548.39462878701</v>
       </c>
-      <c r="E67" s="51">
+      <c r="E67" s="52">
         <v>386838.61202543898</v>
       </c>
-      <c r="F67" s="50">
+      <c r="F67" s="51">
         <v>27635.695489613001</v>
       </c>
-      <c r="G67" s="50">
+      <c r="G67" s="51">
         <v>52</v>
       </c>
-      <c r="H67" s="50">
+      <c r="H67" s="51">
         <v>82240.149701566304</v>
       </c>
-      <c r="I67" s="51">
+      <c r="I67" s="52">
         <v>21</v>
       </c>
-      <c r="J67" s="52">
+      <c r="J67" s="53">
         <v>6.9427068921644599</v>
       </c>
-      <c r="K67" s="52">
+      <c r="K67" s="53">
         <v>66.410558627366896</v>
       </c>
-      <c r="L67" s="53">
+      <c r="L67" s="54">
         <v>73.353265519531305</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="47">
+      <c r="C68" s="48">
         <v>625548.56099999999</v>
       </c>
-      <c r="D68" s="47">
+      <c r="D68" s="48">
         <v>291896.292076546</v>
       </c>
-      <c r="E68" s="43">
+      <c r="E68" s="44">
         <v>336366.196850996</v>
       </c>
-      <c r="F68" s="47">
+      <c r="F68" s="48">
         <v>49315.872650966397</v>
       </c>
-      <c r="G68" s="47">
+      <c r="G68" s="48">
         <v>88</v>
       </c>
-      <c r="H68" s="47">
+      <c r="H68" s="48">
         <v>106129.25759602</v>
       </c>
-      <c r="I68" s="43">
+      <c r="I68" s="44">
         <v>32</v>
       </c>
-      <c r="J68" s="48">
+      <c r="J68" s="49">
         <v>6.2283252361178603</v>
       </c>
-      <c r="K68" s="48">
+      <c r="K68" s="49">
         <v>72.516501725531896</v>
       </c>
-      <c r="L68" s="45">
+      <c r="L68" s="46">
         <v>78.744826961649693</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="47">
+      <c r="C69" s="48">
         <v>190068.644</v>
       </c>
-      <c r="D69" s="47">
+      <c r="D69" s="48">
         <v>52868.560191930301</v>
       </c>
-      <c r="E69" s="43">
+      <c r="E69" s="44">
         <v>143415.98634944001</v>
       </c>
-      <c r="F69" s="47">
+      <c r="F69" s="48">
         <v>5227.4566633690802</v>
       </c>
-      <c r="G69" s="47">
+      <c r="G69" s="48">
         <v>11</v>
       </c>
-      <c r="H69" s="47">
+      <c r="H69" s="48">
         <v>17452.133058310599</v>
       </c>
-      <c r="I69" s="43">
+      <c r="I69" s="44">
         <v>6</v>
       </c>
-      <c r="J69" s="48">
+      <c r="J69" s="49">
         <v>4.7820415390595699</v>
       </c>
-      <c r="K69" s="48">
+      <c r="K69" s="49">
         <v>78.338863283910698</v>
       </c>
-      <c r="L69" s="45">
+      <c r="L69" s="46">
         <v>83.120904822970203</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B70" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="47">
+      <c r="C70" s="48">
         <v>198465.94200000001</v>
       </c>
-      <c r="D70" s="47">
+      <c r="D70" s="48">
         <v>90692.701618848907</v>
       </c>
-      <c r="E70" s="43">
+      <c r="E70" s="44">
         <v>107208.66775958</v>
       </c>
-      <c r="F70" s="47">
+      <c r="F70" s="48">
         <v>15519.9159889863</v>
       </c>
-      <c r="G70" s="47">
+      <c r="G70" s="48">
         <v>27</v>
       </c>
-      <c r="H70" s="47">
+      <c r="H70" s="48">
         <v>43457.019348000897</v>
       </c>
-      <c r="I70" s="43">
+      <c r="I70" s="44">
         <v>13</v>
       </c>
-      <c r="J70" s="48">
+      <c r="J70" s="49">
         <v>5.0291269597772903</v>
       </c>
-      <c r="K70" s="48">
+      <c r="K70" s="49">
         <v>78.372452831513598</v>
       </c>
-      <c r="L70" s="45">
+      <c r="L70" s="46">
         <v>83.401579791290899</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="46" t="s">
+      <c r="B71" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="47">
+      <c r="C71" s="48">
         <v>386908.38799999998</v>
       </c>
-      <c r="D71" s="47">
+      <c r="D71" s="48">
         <v>181697.859961512</v>
       </c>
-      <c r="E71" s="43">
+      <c r="E71" s="44">
         <v>205527.41216133401</v>
       </c>
-      <c r="F71" s="47">
+      <c r="F71" s="48">
         <v>29945.340808434001</v>
       </c>
-      <c r="G71" s="47">
+      <c r="G71" s="48">
         <v>54</v>
       </c>
-      <c r="H71" s="47">
+      <c r="H71" s="48">
         <v>60031.785910706101</v>
       </c>
-      <c r="I71" s="43">
+      <c r="I71" s="44">
         <v>21</v>
       </c>
-      <c r="J71" s="48">
+      <c r="J71" s="49">
         <v>5.39226478084636</v>
       </c>
-      <c r="K71" s="48">
+      <c r="K71" s="49">
         <v>77.230839319379399</v>
       </c>
-      <c r="L71" s="45">
+      <c r="L71" s="46">
         <v>82.623104100225802</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="40" t="s">
+      <c r="A72" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="47">
+      <c r="C72" s="48">
         <v>282711.212</v>
       </c>
-      <c r="D72" s="47">
+      <c r="D72" s="48">
         <v>76394.008423914798</v>
       </c>
-      <c r="E72" s="43">
+      <c r="E72" s="44">
         <v>209153.702777703</v>
       </c>
-      <c r="F72" s="47">
+      <c r="F72" s="48">
         <v>10352.4820896786</v>
       </c>
-      <c r="G72" s="47">
+      <c r="G72" s="48">
         <v>21</v>
       </c>
-      <c r="H72" s="47">
+      <c r="H72" s="48">
         <v>21398.782555462301</v>
       </c>
-      <c r="I72" s="43">
+      <c r="I72" s="44">
         <v>6</v>
       </c>
-      <c r="J72" s="48">
+      <c r="J72" s="49">
         <v>5.9669262749275598</v>
       </c>
-      <c r="K72" s="48">
+      <c r="K72" s="49">
         <v>73.478172778438307</v>
       </c>
-      <c r="L72" s="45">
+      <c r="L72" s="46">
         <v>79.445099053365794</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="46" t="s">
+      <c r="B73" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="47">
+      <c r="C73" s="48">
         <v>353940.12900000002</v>
       </c>
-      <c r="D73" s="47">
+      <c r="D73" s="48">
         <v>163271.81773981001</v>
       </c>
-      <c r="E73" s="43">
+      <c r="E73" s="44">
         <v>198385.978924333</v>
       </c>
-      <c r="F73" s="47">
+      <c r="F73" s="48">
         <v>25120.6724387994</v>
       </c>
-      <c r="G73" s="47">
+      <c r="G73" s="48">
         <v>45</v>
       </c>
-      <c r="H73" s="47">
+      <c r="H73" s="48">
         <v>69575.258524176199</v>
       </c>
-      <c r="I73" s="43">
+      <c r="I73" s="44">
         <v>21</v>
       </c>
-      <c r="J73" s="48">
+      <c r="J73" s="49">
         <v>6.8854681526899997</v>
       </c>
-      <c r="K73" s="48">
+      <c r="K73" s="49">
         <v>66.385816006588598</v>
       </c>
-      <c r="L73" s="45">
+      <c r="L73" s="46">
         <v>73.271284159278594</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="42">
+      <c r="C74" s="43">
         <v>102522.692</v>
       </c>
-      <c r="D74" s="42">
+      <c r="D74" s="43">
         <v>70204.154334538398</v>
       </c>
-      <c r="E74" s="43">
+      <c r="E74" s="44">
         <v>31997.464086520202</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F74" s="43">
         <v>9699.9887367290903</v>
       </c>
-      <c r="G74" s="42">
-        <v>17</v>
-      </c>
-      <c r="H74" s="42">
+      <c r="G74" s="43">
+        <v>17</v>
+      </c>
+      <c r="H74" s="43">
         <v>15422.4524728987</v>
       </c>
-      <c r="I74" s="43">
+      <c r="I74" s="44">
         <v>8</v>
       </c>
-      <c r="J74" s="44">
+      <c r="J74" s="45">
         <v>9.3327375092155496</v>
       </c>
-      <c r="K74" s="44">
+      <c r="K74" s="45">
         <v>47.3332094462071</v>
       </c>
-      <c r="L74" s="45">
+      <c r="L74" s="46">
         <v>56.665946955422697</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="50">
+      <c r="C75" s="51">
         <v>660718.72600000002</v>
       </c>
-      <c r="D75" s="50">
+      <c r="D75" s="51">
         <v>326676.41744515399</v>
       </c>
-      <c r="E75" s="51">
+      <c r="E75" s="52">
         <v>333748.49771931098</v>
       </c>
-      <c r="F75" s="50">
+      <c r="F75" s="51">
         <v>47105.897711718797</v>
       </c>
-      <c r="G75" s="50">
+      <c r="G75" s="51">
         <v>89</v>
       </c>
-      <c r="H75" s="50">
+      <c r="H75" s="51">
         <v>106040.51986066499</v>
       </c>
-      <c r="I75" s="51">
+      <c r="I75" s="52">
         <v>31</v>
       </c>
-      <c r="J75" s="52">
+      <c r="J75" s="53">
         <v>10.2742870956526</v>
       </c>
-      <c r="K75" s="52">
+      <c r="K75" s="53">
         <v>36.317076124904297</v>
       </c>
-      <c r="L75" s="53">
+      <c r="L75" s="54">
         <v>46.591363220556801</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="47">
+      <c r="C76" s="48">
         <v>426905.23</v>
       </c>
-      <c r="D76" s="47">
+      <c r="D76" s="48">
         <v>363925.26147780003</v>
       </c>
-      <c r="E76" s="43">
+      <c r="E76" s="44">
         <v>67484.568284016204</v>
       </c>
-      <c r="F76" s="47">
+      <c r="F76" s="48">
         <v>46252.527908132302</v>
       </c>
-      <c r="G76" s="47">
+      <c r="G76" s="48">
         <v>91</v>
       </c>
-      <c r="H76" s="47">
+      <c r="H76" s="48">
         <v>171186.449613704</v>
       </c>
-      <c r="I76" s="43">
+      <c r="I76" s="44">
         <v>46</v>
       </c>
-      <c r="J76" s="48">
+      <c r="J76" s="49">
         <v>13.607490994343699</v>
       </c>
-      <c r="K76" s="48">
+      <c r="K76" s="49">
         <v>38.662400176288003</v>
       </c>
-      <c r="L76" s="45">
+      <c r="L76" s="46">
         <v>52.269891170631603</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="46" t="s">
+      <c r="B77" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C77" s="42">
+      <c r="C77" s="43">
         <v>444986.76799999998</v>
       </c>
-      <c r="D77" s="42">
+      <c r="D77" s="43">
         <v>331159.21852038702</v>
       </c>
-      <c r="E77" s="43">
+      <c r="E77" s="44">
         <v>112108.23538456501</v>
       </c>
-      <c r="F77" s="42">
+      <c r="F77" s="43">
         <v>51186.450329808198</v>
       </c>
-      <c r="G77" s="42">
+      <c r="G77" s="43">
         <v>102</v>
       </c>
-      <c r="H77" s="42">
+      <c r="H77" s="43">
         <v>75631.202665197095</v>
       </c>
-      <c r="I77" s="43">
+      <c r="I77" s="44">
         <v>32</v>
       </c>
-      <c r="J77" s="44">
+      <c r="J77" s="45">
         <v>30.497481734152402</v>
       </c>
-      <c r="K77" s="44">
+      <c r="K77" s="45">
         <v>23.977008436783901</v>
       </c>
-      <c r="L77" s="45">
+      <c r="L77" s="46">
         <v>45.438199286743099</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="40" t="s">
+      <c r="A78" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C78" s="50">
+      <c r="C78" s="51">
         <v>468518.68900000001</v>
       </c>
-      <c r="D78" s="50">
+      <c r="D78" s="51">
         <v>244802.665807746</v>
       </c>
-      <c r="E78" s="51">
+      <c r="E78" s="52">
         <v>225009.09552583401</v>
       </c>
-      <c r="F78" s="50">
+      <c r="F78" s="51">
         <v>41528.046393646</v>
       </c>
-      <c r="G78" s="50">
+      <c r="G78" s="51">
         <v>74</v>
       </c>
-      <c r="H78" s="50">
+      <c r="H78" s="51">
         <v>83798.246103625395</v>
       </c>
-      <c r="I78" s="51">
+      <c r="I78" s="52">
         <v>27</v>
       </c>
-      <c r="J78" s="52">
+      <c r="J78" s="53">
         <v>5.6770611924933601</v>
       </c>
-      <c r="K78" s="52">
+      <c r="K78" s="53">
         <v>70.672717190214996</v>
       </c>
-      <c r="L78" s="53">
+      <c r="L78" s="54">
         <v>76.349778382708394</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="47">
+      <c r="C79" s="48">
         <v>502162.34399999998</v>
       </c>
-      <c r="D79" s="47">
+      <c r="D79" s="48">
         <v>354595.77439318202</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79" s="44">
         <v>149147.766814943</v>
       </c>
-      <c r="F79" s="47">
+      <c r="F79" s="48">
         <v>71216.460727377096</v>
       </c>
-      <c r="G79" s="47">
+      <c r="G79" s="48">
         <v>141</v>
       </c>
-      <c r="H79" s="47">
+      <c r="H79" s="48">
         <v>126529.766267516</v>
       </c>
-      <c r="I79" s="43">
+      <c r="I79" s="44">
         <v>52</v>
       </c>
-      <c r="J79" s="48">
+      <c r="J79" s="49">
         <v>8.6110563886565892</v>
       </c>
-      <c r="K79" s="48">
+      <c r="K79" s="49">
         <v>39.9223777297846</v>
       </c>
-      <c r="L79" s="45">
+      <c r="L79" s="46">
         <v>48.5334341184412</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="46" t="s">
+      <c r="B80" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="47">
+      <c r="C80" s="48">
         <v>837801.88300000003</v>
       </c>
-      <c r="D80" s="47">
+      <c r="D80" s="48">
         <v>320637.73362091702</v>
       </c>
-      <c r="E80" s="43">
+      <c r="E80" s="44">
         <v>526723.58596944006</v>
       </c>
-      <c r="F80" s="47">
+      <c r="F80" s="48">
         <v>43940.056468350696</v>
       </c>
-      <c r="G80" s="47">
+      <c r="G80" s="48">
         <v>83</v>
       </c>
-      <c r="H80" s="47">
+      <c r="H80" s="48">
         <v>121512.667811883</v>
       </c>
-      <c r="I80" s="43">
+      <c r="I80" s="44">
         <v>37</v>
       </c>
-      <c r="J80" s="48">
+      <c r="J80" s="49">
         <v>6.5147285981416196</v>
       </c>
-      <c r="K80" s="48">
+      <c r="K80" s="49">
         <v>69.793298486699598</v>
       </c>
-      <c r="L80" s="45">
+      <c r="L80" s="46">
         <v>76.3080270848412</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="40" t="s">
+      <c r="A81" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="42">
+      <c r="C81" s="43">
         <v>5860424.1689999998</v>
       </c>
-      <c r="D81" s="42">
+      <c r="D81" s="43">
         <v>3337137.36356933</v>
       </c>
-      <c r="E81" s="43">
+      <c r="E81" s="44">
         <v>2503715.7226358098</v>
       </c>
-      <c r="F81" s="42">
+      <c r="F81" s="43">
         <v>527946.36413644999</v>
       </c>
-      <c r="G81" s="42">
+      <c r="G81" s="43">
         <v>993</v>
       </c>
-      <c r="H81" s="42">
+      <c r="H81" s="43">
         <v>1472992.85247708</v>
       </c>
-      <c r="I81" s="43">
+      <c r="I81" s="44">
         <v>440</v>
       </c>
-      <c r="J81" s="44">
+      <c r="J81" s="45">
         <v>17.261141787094498</v>
       </c>
-      <c r="K81" s="44">
+      <c r="K81" s="45">
         <v>34.287590520355998</v>
       </c>
-      <c r="L81" s="45">
+      <c r="L81" s="46">
         <v>49.594640784383202</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="49" t="s">
+      <c r="B82" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="50">
+      <c r="C82" s="51">
         <v>537930.85400000005</v>
       </c>
-      <c r="D82" s="50">
+      <c r="D82" s="51">
         <v>169750.400077623</v>
       </c>
-      <c r="E82" s="51">
+      <c r="E82" s="52">
         <v>374103.05225603399</v>
       </c>
-      <c r="F82" s="50">
+      <c r="F82" s="51">
         <v>22517.335092511901</v>
       </c>
-      <c r="G82" s="50">
+      <c r="G82" s="51">
         <v>41</v>
       </c>
-      <c r="H82" s="50">
+      <c r="H82" s="51">
         <v>59983.794007049801</v>
       </c>
-      <c r="I82" s="51">
+      <c r="I82" s="52">
         <v>23</v>
       </c>
-      <c r="J82" s="52">
+      <c r="J82" s="53">
         <v>5.4214745118468999</v>
       </c>
-      <c r="K82" s="52">
+      <c r="K82" s="53">
         <v>81.427212574592801</v>
       </c>
-      <c r="L82" s="53">
+      <c r="L82" s="54">
         <v>86.848687086439696</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="C83" s="47">
+      <c r="C83" s="48">
         <v>130524.071</v>
       </c>
-      <c r="D83" s="47">
+      <c r="D83" s="48">
         <v>55767.085595284101</v>
       </c>
-      <c r="E83" s="43">
+      <c r="E83" s="44">
         <v>76026.877805701093</v>
       </c>
-      <c r="F83" s="47">
+      <c r="F83" s="48">
         <v>11339.3945600302</v>
       </c>
-      <c r="G83" s="47">
+      <c r="G83" s="48">
         <v>20</v>
       </c>
-      <c r="H83" s="47">
+      <c r="H83" s="48">
         <v>18101.012779552701</v>
       </c>
-      <c r="I83" s="43">
+      <c r="I83" s="44">
         <v>7</v>
       </c>
-      <c r="J83" s="48">
+      <c r="J83" s="49">
         <v>7.3101860291659904</v>
       </c>
-      <c r="K83" s="48">
+      <c r="K83" s="49">
         <v>56.162661640790802</v>
       </c>
-      <c r="L83" s="45">
+      <c r="L83" s="46">
         <v>63.472847669956799</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="C84" s="47">
+      <c r="C84" s="48">
         <v>693359.8</v>
       </c>
-      <c r="D84" s="47">
+      <c r="D84" s="48">
         <v>345167.96888833801</v>
       </c>
-      <c r="E84" s="43">
+      <c r="E84" s="44">
         <v>353735.23905075598</v>
       </c>
-      <c r="F84" s="47">
+      <c r="F84" s="48">
         <v>54094.411478117203</v>
       </c>
-      <c r="G84" s="47">
+      <c r="G84" s="48">
         <v>102</v>
       </c>
-      <c r="H84" s="47">
+      <c r="H84" s="48">
         <v>123401.420374564</v>
       </c>
-      <c r="I84" s="43">
+      <c r="I84" s="44">
         <v>34</v>
       </c>
-      <c r="J84" s="48">
+      <c r="J84" s="49">
         <v>6.4367755340620398</v>
       </c>
-      <c r="K84" s="48">
+      <c r="K84" s="49">
         <v>66.304200657954198</v>
       </c>
-      <c r="L84" s="45">
+      <c r="L84" s="46">
         <v>72.740976192016205</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="46" t="s">
+      <c r="B85" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="C85" s="47">
+      <c r="C85" s="48">
         <v>2215193.2030000002</v>
       </c>
-      <c r="D85" s="47">
+      <c r="D85" s="48">
         <v>807086.72097524104</v>
       </c>
-      <c r="E85" s="43">
+      <c r="E85" s="44">
         <v>1402839.4854842799</v>
       </c>
-      <c r="F85" s="47">
+      <c r="F85" s="48">
         <v>102991.41199177501</v>
       </c>
-      <c r="G85" s="47">
+      <c r="G85" s="48">
         <v>202</v>
       </c>
-      <c r="H85" s="47">
+      <c r="H85" s="48">
         <v>344738.711043505</v>
       </c>
-      <c r="I85" s="43">
+      <c r="I85" s="44">
         <v>97</v>
       </c>
-      <c r="J85" s="48">
+      <c r="J85" s="49">
         <v>9.3641950094787507</v>
       </c>
-      <c r="K85" s="48">
+      <c r="K85" s="49">
         <v>46.855269986525698</v>
       </c>
-      <c r="L85" s="45">
+      <c r="L85" s="46">
         <v>56.219464996004497</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="47">
+      <c r="C86" s="48">
         <v>73662.506999999998</v>
       </c>
-      <c r="D86" s="47">
+      <c r="D86" s="48">
         <v>49948.676516780302</v>
       </c>
-      <c r="E86" s="43">
+      <c r="E86" s="44">
         <v>23100.958798019299</v>
       </c>
-      <c r="F86" s="47">
+      <c r="F86" s="48">
         <v>8856.3562913675596</v>
       </c>
-      <c r="G86" s="47">
+      <c r="G86" s="48">
         <v>14</v>
       </c>
-      <c r="H86" s="47">
+      <c r="H86" s="48">
         <v>21925.6995338948</v>
       </c>
-      <c r="I86" s="43">
+      <c r="I86" s="44">
         <v>7</v>
       </c>
-      <c r="J86" s="48">
+      <c r="J86" s="49">
         <v>6.3257698918068597</v>
       </c>
-      <c r="K86" s="48">
+      <c r="K86" s="49">
         <v>54.192920015098601</v>
       </c>
-      <c r="L86" s="45">
+      <c r="L86" s="46">
         <v>60.5186899069055</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="46" t="s">
+      <c r="B87" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="47">
+      <c r="C87" s="48">
         <v>2820945.5690000001</v>
       </c>
-      <c r="D87" s="47">
+      <c r="D87" s="48">
         <v>1862884.60203641</v>
       </c>
-      <c r="E87" s="43">
+      <c r="E87" s="44">
         <v>947523.73720938596</v>
       </c>
-      <c r="F87" s="47">
+      <c r="F87" s="48">
         <v>323262.92006155202</v>
       </c>
-      <c r="G87" s="47">
+      <c r="G87" s="48">
         <v>600</v>
       </c>
-      <c r="H87" s="47">
+      <c r="H87" s="48">
         <v>800278.662148598</v>
       </c>
-      <c r="I87" s="43">
+      <c r="I87" s="44">
         <v>259</v>
       </c>
-      <c r="J87" s="48">
+      <c r="J87" s="49">
         <v>13.857587760295599</v>
       </c>
-      <c r="K87" s="48">
+      <c r="K87" s="49">
         <v>36.680870886757099</v>
       </c>
-      <c r="L87" s="45">
+      <c r="L87" s="46">
         <v>50.230512252379498</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="46" t="s">
+      <c r="B88" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="42">
+      <c r="C88" s="43">
         <v>1197291.081</v>
       </c>
-      <c r="D88" s="42">
+      <c r="D88" s="43">
         <v>966568.08330149297</v>
       </c>
-      <c r="E88" s="43">
+      <c r="E88" s="44">
         <v>227266.820341857</v>
       </c>
-      <c r="F88" s="42">
+      <c r="F88" s="43">
         <v>161569.09825046899</v>
       </c>
-      <c r="G88" s="42">
+      <c r="G88" s="43">
         <v>312</v>
       </c>
-      <c r="H88" s="42">
+      <c r="H88" s="43">
         <v>436404.23277294397</v>
       </c>
-      <c r="I88" s="43">
+      <c r="I88" s="44">
         <v>129</v>
       </c>
-      <c r="J88" s="44">
+      <c r="J88" s="45">
         <v>22.141245113016598</v>
       </c>
-      <c r="K88" s="44">
+      <c r="K88" s="45">
         <v>26.035119961845101</v>
       </c>
-      <c r="L88" s="45">
+      <c r="L88" s="46">
         <v>43.666111440728599</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="50">
+      <c r="C89" s="51">
         <v>682410.62199999997</v>
       </c>
-      <c r="D89" s="50">
+      <c r="D89" s="51">
         <v>237723.44277708599</v>
       </c>
-      <c r="E89" s="51">
+      <c r="E89" s="52">
         <v>454385.15565617901</v>
       </c>
-      <c r="F89" s="50">
+      <c r="F89" s="51">
         <v>34636.112042369103</v>
       </c>
-      <c r="G89" s="50">
+      <c r="G89" s="51">
         <v>63</v>
       </c>
-      <c r="H89" s="50">
+      <c r="H89" s="51">
         <v>82404.649329643406</v>
       </c>
-      <c r="I89" s="51">
+      <c r="I89" s="52">
         <v>29</v>
       </c>
-      <c r="J89" s="52">
+      <c r="J89" s="53">
         <v>5.4763320900887704</v>
       </c>
-      <c r="K89" s="52">
+      <c r="K89" s="53">
         <v>78.652004704143806</v>
       </c>
-      <c r="L89" s="53">
+      <c r="L89" s="54">
         <v>84.128336794232595</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="C90" s="47">
+      <c r="C90" s="48">
         <v>350978.24599999998</v>
       </c>
-      <c r="D90" s="47">
+      <c r="D90" s="48">
         <v>119987.024212196</v>
       </c>
-      <c r="E90" s="43">
+      <c r="E90" s="44">
         <v>236860.603761076</v>
       </c>
-      <c r="F90" s="47">
+      <c r="F90" s="48">
         <v>12728.402707355001</v>
       </c>
-      <c r="G90" s="47">
+      <c r="G90" s="48">
         <v>21</v>
       </c>
-      <c r="H90" s="47">
+      <c r="H90" s="48">
         <v>44903.546324756702</v>
       </c>
-      <c r="I90" s="43">
+      <c r="I90" s="44">
         <v>9</v>
       </c>
-      <c r="J90" s="48">
+      <c r="J90" s="49">
         <v>7.1670165103974304</v>
       </c>
-      <c r="K90" s="48">
+      <c r="K90" s="49">
         <v>55.418477449249799</v>
       </c>
-      <c r="L90" s="45">
+      <c r="L90" s="46">
         <v>62.585493959647302</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="46" t="s">
+      <c r="B91" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="47">
+      <c r="C91" s="48">
         <v>4904.2030000000004</v>
       </c>
-      <c r="D91" s="47">
+      <c r="D91" s="48">
         <v>2203.7992945534202</v>
       </c>
-      <c r="E91" s="43">
+      <c r="E91" s="44">
         <v>2738.7502170586199</v>
       </c>
-      <c r="F91" s="47">
+      <c r="F91" s="48">
         <v>577.52230300692804</v>
       </c>
-      <c r="G91" s="47">
+      <c r="G91" s="48">
         <v>1</v>
       </c>
-      <c r="H91" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I91" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" s="48">
+      <c r="H91" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="49">
         <v>8.5858135791408792</v>
       </c>
-      <c r="K91" s="48">
+      <c r="K91" s="49">
         <v>53.779161204881802</v>
       </c>
-      <c r="L91" s="45">
+      <c r="L91" s="46">
         <v>62.364974784022699</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="47">
+      <c r="C92" s="48">
         <v>61274.49</v>
       </c>
-      <c r="D92" s="47">
+      <c r="D92" s="48">
         <v>37951.418073545399</v>
       </c>
-      <c r="E92" s="43">
+      <c r="E92" s="44">
         <v>23437.260382744</v>
       </c>
-      <c r="F92" s="47">
+      <c r="F92" s="48">
         <v>3501.10232437798</v>
       </c>
-      <c r="G92" s="47">
+      <c r="G92" s="48">
         <v>7</v>
       </c>
-      <c r="H92" s="47">
+      <c r="H92" s="48">
         <v>13932.5186820008</v>
       </c>
-      <c r="I92" s="43">
+      <c r="I92" s="44">
         <v>4</v>
       </c>
-      <c r="J92" s="48">
+      <c r="J92" s="49">
         <v>10.883046997046501</v>
       </c>
-      <c r="K92" s="48">
+      <c r="K92" s="49">
         <v>42.322902987269103</v>
       </c>
-      <c r="L92" s="45">
+      <c r="L92" s="46">
         <v>53.205949984315602</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="47">
+      <c r="C93" s="48">
         <v>332262.48800000001</v>
       </c>
-      <c r="D93" s="47">
+      <c r="D93" s="48">
         <v>84612.000571764307</v>
       </c>
-      <c r="E93" s="43">
+      <c r="E93" s="44">
         <v>253674.02344886301</v>
       </c>
-      <c r="F93" s="47">
+      <c r="F93" s="48">
         <v>8696.2979257011393</v>
       </c>
-      <c r="G93" s="47">
+      <c r="G93" s="48">
         <v>15</v>
       </c>
-      <c r="H93" s="47">
+      <c r="H93" s="48">
         <v>21880.490787639599</v>
       </c>
-      <c r="I93" s="43">
+      <c r="I93" s="44">
         <v>10</v>
       </c>
-      <c r="J93" s="48">
+      <c r="J93" s="49">
         <v>5.4433644700692003</v>
       </c>
-      <c r="K93" s="48">
+      <c r="K93" s="49">
         <v>78.852359835093395</v>
       </c>
-      <c r="L93" s="45">
+      <c r="L93" s="46">
         <v>84.295724305162594</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="C94" s="42">
+      <c r="C94" s="43">
         <v>188710.20300000001</v>
       </c>
-      <c r="D94" s="42">
+      <c r="D94" s="43">
         <v>78432.068778172499</v>
       </c>
-      <c r="E94" s="43">
+      <c r="E94" s="44">
         <v>109852.705605758</v>
       </c>
-      <c r="F94" s="42">
+      <c r="F94" s="43">
         <v>10886.2201754175</v>
       </c>
-      <c r="G94" s="42">
+      <c r="G94" s="43">
         <v>23</v>
       </c>
-      <c r="H94" s="42">
+      <c r="H94" s="43">
         <v>25929.163945777898</v>
       </c>
-      <c r="I94" s="43">
+      <c r="I94" s="44">
         <v>14</v>
       </c>
-      <c r="J94" s="44">
+      <c r="J94" s="45">
         <v>10.0077066188198</v>
       </c>
-      <c r="K94" s="44">
+      <c r="K94" s="45">
         <v>44.496998520948502</v>
       </c>
-      <c r="L94" s="45">
+      <c r="L94" s="46">
         <v>54.504705139768298</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="40" t="s">
+      <c r="A95" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="49" t="s">
+      <c r="B95" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="50">
+      <c r="C95" s="51">
         <v>763568.46299999999</v>
       </c>
-      <c r="D95" s="50">
+      <c r="D95" s="51">
         <v>304118.28062672302</v>
       </c>
-      <c r="E95" s="51">
+      <c r="E95" s="52">
         <v>466915.026288133</v>
       </c>
-      <c r="F95" s="50">
+      <c r="F95" s="51">
         <v>46954.070425072001</v>
       </c>
-      <c r="G95" s="50">
+      <c r="G95" s="51">
         <v>88</v>
       </c>
-      <c r="H95" s="50">
+      <c r="H95" s="51">
         <v>100152.281790579</v>
       </c>
-      <c r="I95" s="51">
+      <c r="I95" s="52">
         <v>34</v>
       </c>
-      <c r="J95" s="52">
+      <c r="J95" s="53">
         <v>5.4102338945514497</v>
       </c>
-      <c r="K95" s="52">
+      <c r="K95" s="53">
         <v>74.761467177676096</v>
       </c>
-      <c r="L95" s="53">
+      <c r="L95" s="54">
         <v>80.171701072227606</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="C96" s="47">
+      <c r="C96" s="48">
         <v>647048.84699999995</v>
       </c>
-      <c r="D96" s="47">
+      <c r="D96" s="48">
         <v>290865.69227907201</v>
       </c>
-      <c r="E96" s="43">
+      <c r="E96" s="44">
         <v>352472.144168503</v>
       </c>
-      <c r="F96" s="47">
+      <c r="F96" s="48">
         <v>33322.3230223028</v>
       </c>
-      <c r="G96" s="47">
+      <c r="G96" s="48">
         <v>63</v>
       </c>
-      <c r="H96" s="47">
+      <c r="H96" s="48">
         <v>117906.812502341</v>
       </c>
-      <c r="I96" s="43">
+      <c r="I96" s="44">
         <v>33</v>
       </c>
-      <c r="J96" s="48">
+      <c r="J96" s="49">
         <v>8.1182381656559492</v>
       </c>
-      <c r="K96" s="48">
+      <c r="K96" s="49">
         <v>48.841932561584699</v>
       </c>
-      <c r="L96" s="45">
+      <c r="L96" s="46">
         <v>56.960170727240602</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B97" s="54" t="s">
+      <c r="B97" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="55">
+      <c r="C97" s="56">
         <v>328558.64600000001</v>
       </c>
-      <c r="D97" s="55">
+      <c r="D97" s="56">
         <v>140437.13520052499</v>
       </c>
-      <c r="E97" s="56">
+      <c r="E97" s="57">
         <v>192508.087053353</v>
       </c>
-      <c r="F97" s="55">
+      <c r="F97" s="56">
         <v>29747.969919513402</v>
       </c>
-      <c r="G97" s="55">
+      <c r="G97" s="56">
         <v>52</v>
       </c>
-      <c r="H97" s="55">
+      <c r="H97" s="56">
         <v>59780.523350491698</v>
       </c>
-      <c r="I97" s="56">
+      <c r="I97" s="57">
         <v>20</v>
       </c>
-      <c r="J97" s="57">
+      <c r="J97" s="58">
         <v>5.7419082424159802</v>
       </c>
-      <c r="K97" s="57">
+      <c r="K97" s="58">
         <v>74.997562110614297</v>
       </c>
-      <c r="L97" s="58">
+      <c r="L97" s="59">
         <v>80.7394703530302</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="59"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="44"/>
-      <c r="K98" s="44"/>
-      <c r="L98" s="44"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="45"/>
+      <c r="L98" s="45"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="62" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="62" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="62" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="62" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="66" t="s">
+      <c r="B105" s="68" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="68"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B107" s="69" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B108" s="69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B109" s="69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B110" s="69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B111" s="69" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B105" r:id="rId1" display="If you would like to explore these data further, look up the historic time series for these indicators, or produce interactive visualisations of these data, please visit the website http://oe.cd/afdd2020."/>
+    <hyperlink ref="B107" r:id="rId2"/>
+    <hyperlink ref="B108" r:id="rId3" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B109" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B111" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>